--- a/case_number.xlsx
+++ b/case_number.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chang\Nutstore\1\Nutstore\Workspace\proposal\DOE_Early_CAREER_Topology_Optimization\convection_time_varying_T\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chang\Nutstore\1\Nutstore\Workspace\convection_time_varying_T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26553C21-FE1E-4925-943E-E36D7106E012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E58DC1-2570-440C-94FF-C8EF2EFD54A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Turbulent convection NREL clust" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>omega</t>
   </si>
@@ -84,6 +85,27 @@
   </si>
   <si>
     <t>Max heat flux</t>
+  </si>
+  <si>
+    <t>Re_tau</t>
+  </si>
+  <si>
+    <t>Nx</t>
+  </si>
+  <si>
+    <t>Ny</t>
+  </si>
+  <si>
+    <t>Nz</t>
+  </si>
+  <si>
+    <t>4pi</t>
+  </si>
+  <si>
+    <t>2pi</t>
+  </si>
+  <si>
+    <t>pi</t>
   </si>
 </sst>
 </file>
@@ -403,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -563,4 +585,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0792B6-F3DE-44AA-920E-7B8294731BF8}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>10249087</v>
+      </c>
+      <c r="B2">
+        <v>180</v>
+      </c>
+      <c r="C2">
+        <v>0.71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>192</v>
+      </c>
+      <c r="H2">
+        <v>129</v>
+      </c>
+      <c r="I2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B3">
+        <v>550</v>
+      </c>
+      <c r="C3">
+        <v>0.71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>288</v>
+      </c>
+      <c r="H3">
+        <v>180</v>
+      </c>
+      <c r="I3">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/case_number.xlsx
+++ b/case_number.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chang\Nutstore\1\Nutstore\Workspace\convection_time_varying_T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E58DC1-2570-440C-94FF-C8EF2EFD54A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA013FD-A1F6-424D-AF4E-20A53691C32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>omega</t>
   </si>
@@ -106,6 +106,36 @@
   </si>
   <si>
     <t>pi</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>mem</t>
+  </si>
+  <si>
+    <t>950G</t>
+  </si>
+  <si>
+    <t>ntask</t>
+  </si>
+  <si>
+    <t>medmem</t>
+  </si>
+  <si>
+    <t>initial_dt</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>48h</t>
+  </si>
+  <si>
+    <t>240h</t>
   </si>
 </sst>
 </file>
@@ -141,8 +171,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,15 +620,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0792B6-F3DE-44AA-920E-7B8294731BF8}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>16</v>
       </c>
@@ -622,8 +653,23 @@
       <c r="I1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>10249087</v>
       </c>
@@ -651,8 +697,20 @@
       <c r="I2">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J2">
+        <v>2E-3</v>
+      </c>
+      <c r="K2">
+        <v>96</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>10336395</v>
+      </c>
       <c r="B3">
         <v>550</v>
       </c>
@@ -677,8 +735,68 @@
       <c r="I3">
         <v>240</v>
       </c>
+      <c r="J3" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K3">
+        <v>96</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>10337405</v>
+      </c>
+      <c r="B4">
+        <v>550</v>
+      </c>
+      <c r="C4">
+        <v>0.71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>288</v>
+      </c>
+      <c r="H4">
+        <v>180</v>
+      </c>
+      <c r="I4">
+        <v>240</v>
+      </c>
+      <c r="J4" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/case_number.xlsx
+++ b/case_number.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chang\Nutstore\1\Nutstore\Workspace\convection_time_varying_T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA013FD-A1F6-424D-AF4E-20A53691C32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30BD1CC-A114-4A94-81C0-6D5BF7441214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -753,7 +753,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>10337405</v>
+        <v>10337407</v>
       </c>
       <c r="B4">
         <v>550</v>
